--- a/protocol/CDTire.xlsx
+++ b/protocol/CDTire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Apollo-Tyres\protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083B394B-819E-4269-8526-D18C501B5E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A12CFC-BA2C-41E1-AF39-BED0C9918BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,19 +62,6 @@
     <t>Cleat</t>
   </si>
   <si>
-    <t>Inflation
-Pressure
-[bar]</t>
-  </si>
-  <si>
-    <t>Velocity
-[km/h]</t>
-  </si>
-  <si>
-    <t>Preload
-[N]</t>
-  </si>
-  <si>
     <t>Cleat20x20</t>
   </si>
   <si>
@@ -117,9 +104,6 @@
     <t>Torsional Stiffness</t>
   </si>
   <si>
-    <t>Slip range[%]</t>
-  </si>
-  <si>
     <t>+/-25</t>
   </si>
   <si>
@@ -141,9 +125,6 @@
     <t>Test Name</t>
   </si>
   <si>
-    <t>Camber[Deg]</t>
-  </si>
-  <si>
     <t>Displacement [mm]</t>
   </si>
   <si>
@@ -193,6 +174,21 @@
   </si>
   <si>
     <t>2D Cleat Transverse Cleat</t>
+  </si>
+  <si>
+    <t>Velocity [km/h]</t>
+  </si>
+  <si>
+    <t>Preload [N]</t>
+  </si>
+  <si>
+    <t>Camber [Deg]</t>
+  </si>
+  <si>
+    <t>Slip range [%]</t>
+  </si>
+  <si>
+    <t>Inflation Pressure [bar]</t>
   </si>
 </sst>
 </file>
@@ -297,17 +293,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,73 +589,73 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" style="10" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="A1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
     </row>
     <row r="2" spans="1:11" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -667,7 +663,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>0</v>
@@ -676,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
@@ -685,13 +681,13 @@
         <v>0</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>1</v>
@@ -702,7 +698,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>0</v>
@@ -711,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -720,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>1</v>
@@ -737,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>0</v>
@@ -746,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
@@ -755,13 +751,13 @@
         <v>0</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>1</v>
@@ -772,7 +768,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>0</v>
@@ -781,22 +777,22 @@
         <v>0</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>1</v>
@@ -807,7 +803,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>0</v>
@@ -816,22 +812,22 @@
         <v>0</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>1</v>
@@ -842,7 +838,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>0</v>
@@ -851,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>1</v>
@@ -877,7 +873,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
@@ -886,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -895,13 +891,13 @@
         <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>1</v>
@@ -912,7 +908,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>3</v>
@@ -921,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -930,13 +926,13 @@
         <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>1</v>
@@ -947,7 +943,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>4</v>
@@ -956,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
@@ -965,13 +961,13 @@
         <v>0</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>1</v>
@@ -982,7 +978,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>0</v>
@@ -991,22 +987,22 @@
         <v>0</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>1</v>
@@ -1017,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>0</v>
@@ -1026,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G13" s="3">
         <v>0</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>1</v>
@@ -1052,7 +1048,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>0</v>
@@ -1061,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1070,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>1</v>
@@ -1087,7 +1083,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>0</v>
@@ -1096,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1105,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>1</v>
@@ -1122,7 +1118,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>0</v>
@@ -1131,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
@@ -1140,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>1</v>
@@ -1157,7 +1153,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>0</v>
@@ -1166,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -1175,13 +1171,13 @@
         <v>0</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>1</v>
@@ -1192,7 +1188,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>0</v>
@@ -1201,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -1210,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>1</v>
@@ -1227,7 +1223,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>0</v>
@@ -1236,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
@@ -1245,13 +1241,13 @@
         <v>0</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>1</v>
@@ -1262,7 +1258,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>0</v>
@@ -1271,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1280,13 +1276,13 @@
         <v>0</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>1</v>
@@ -1297,7 +1293,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>0</v>
@@ -1306,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -1315,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>1</v>
@@ -1332,7 +1328,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>0</v>
@@ -1341,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1350,13 +1346,13 @@
         <v>0</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>1</v>
@@ -1367,7 +1363,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>0</v>
@@ -1376,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -1385,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>1</v>
@@ -1402,7 +1398,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>0</v>
@@ -1411,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1420,13 +1416,13 @@
         <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>1</v>
@@ -1437,7 +1433,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>0</v>
@@ -1446,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F25" s="3">
         <v>0</v>
@@ -1455,13 +1451,13 @@
         <v>0</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>1</v>
@@ -1472,7 +1468,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>0</v>
@@ -1481,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -1490,16 +1486,16 @@
         <v>0</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J26" s="4">
         <v>90</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1507,7 +1503,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>0</v>
@@ -1516,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -1525,16 +1521,16 @@
         <v>0</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J27" s="4">
         <v>0</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1542,7 +1538,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>0</v>
@@ -1551,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F28" s="3">
         <v>0</v>
@@ -1560,33 +1556,33 @@
         <v>0</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J28" s="4">
         <v>45</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="10">
+      <c r="B29" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="12">
         <v>0</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1595,13 +1591,13 @@
         <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>1</v>
@@ -1611,11 +1607,11 @@
       <c r="A30" s="2">
         <v>28</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
       <c r="E30" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F30" s="3">
         <v>0</v>
@@ -1624,16 +1620,16 @@
         <v>0</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J30" s="4">
         <v>90</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -1641,7 +1637,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>0</v>
@@ -1650,22 +1646,22 @@
         <v>0</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>1</v>
@@ -1676,7 +1672,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>0</v>
@@ -1685,22 +1681,22 @@
         <v>0</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>1</v>
@@ -1711,7 +1707,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>0</v>
@@ -1720,22 +1716,22 @@
         <v>0</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>1</v>
@@ -1746,7 +1742,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>0</v>
@@ -1755,22 +1751,22 @@
         <v>0</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F34" s="3">
         <v>0</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>1</v>
@@ -1781,7 +1777,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>0</v>
@@ -1790,22 +1786,22 @@
         <v>0</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>1</v>
@@ -1816,7 +1812,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>0</v>
@@ -1825,22 +1821,22 @@
         <v>0</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F36" s="3">
         <v>0</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>1</v>
@@ -1851,331 +1847,331 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F37" s="2">
         <v>0</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L37" s="11"/>
+      <c r="L37" s="13"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F38" s="2">
         <v>0</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L38" s="11"/>
+      <c r="L38" s="13"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F39" s="2">
         <v>0</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L39" s="11"/>
+      <c r="L39" s="13"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F40" s="2">
         <v>0</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L40" s="11"/>
+      <c r="L40" s="13"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F41" s="2">
         <v>0</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L41" s="11"/>
+      <c r="L41" s="13"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F42" s="2">
         <v>0</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L42" s="11"/>
+      <c r="L42" s="13"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F43" s="2">
         <v>3</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L43" s="11"/>
+      <c r="L43" s="13"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F44" s="2">
         <v>3</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L44" s="11"/>
+      <c r="L44" s="13"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F45" s="2">
         <v>3</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L45" s="11"/>
+      <c r="L45" s="13"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>0</v>
@@ -2184,22 +2180,22 @@
         <v>160</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F46" s="2">
         <v>0</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>1</v>
@@ -2211,7 +2207,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>0</v>
@@ -2220,34 +2216,34 @@
         <v>5</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F47" s="2">
         <v>0</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L47" s="11"/>
+      <c r="L47" s="13"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>46</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>0</v>
@@ -2256,34 +2252,34 @@
         <v>60</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F48" s="2">
         <v>0</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L48" s="11"/>
+      <c r="L48" s="13"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>0</v>
@@ -2292,34 +2288,34 @@
         <v>160</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F49" s="2">
         <v>0</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L49" s="11"/>
+      <c r="L49" s="13"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>48</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>0</v>
@@ -2328,22 +2324,22 @@
         <v>60</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F50" s="2">
         <v>0</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K50" s="3" t="s">
         <v>1</v>
@@ -2355,7 +2351,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>0</v>
@@ -2364,25 +2360,25 @@
         <v>20</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F51" s="2">
         <v>0</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J51" s="2">
         <v>90</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -2390,7 +2386,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>0</v>
@@ -2399,25 +2395,25 @@
         <v>40</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F52" s="2">
         <v>0</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J52" s="2">
         <v>90</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -2425,7 +2421,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>0</v>
@@ -2434,25 +2430,25 @@
         <v>60</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F53" s="2">
         <v>0</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J53" s="2">
         <v>90</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -2460,7 +2456,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>0</v>
@@ -2469,25 +2465,25 @@
         <v>90</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F54" s="2">
         <v>0</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J54" s="2">
         <v>90</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -2495,7 +2491,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>0</v>
@@ -2504,25 +2500,25 @@
         <v>20</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F55" s="2">
         <v>0</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J55" s="2">
         <v>90</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -2530,7 +2526,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>0</v>
@@ -2539,25 +2535,25 @@
         <v>40</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F56" s="2">
         <v>0</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J56" s="2">
         <v>90</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -2565,7 +2561,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>0</v>
@@ -2574,25 +2570,25 @@
         <v>60</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F57" s="2">
         <v>0</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J57" s="2">
         <v>90</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -2600,7 +2596,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>0</v>
@@ -2609,25 +2605,25 @@
         <v>90</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F58" s="2">
         <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J58" s="2">
         <v>90</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -2635,7 +2631,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>0</v>
@@ -2644,25 +2640,25 @@
         <v>20</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F59" s="2">
         <v>0</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J59" s="2">
         <v>90</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -2670,7 +2666,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>0</v>
@@ -2679,25 +2675,25 @@
         <v>40</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F60" s="2">
         <v>0</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J60" s="2">
         <v>90</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -2705,7 +2701,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>0</v>
@@ -2714,25 +2710,25 @@
         <v>60</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F61" s="2">
         <v>0</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J61" s="2">
         <v>90</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -2740,7 +2736,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>0</v>
@@ -2749,25 +2745,25 @@
         <v>90</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F62" s="2">
         <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J62" s="2">
         <v>90</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2775,7 +2771,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>0</v>
@@ -2784,25 +2780,25 @@
         <v>20</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F63" s="2">
         <v>0</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J63" s="2">
         <v>45</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -2810,7 +2806,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>0</v>
@@ -2819,25 +2815,25 @@
         <v>40</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F64" s="2">
         <v>0</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J64" s="2">
         <v>45</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -2845,7 +2841,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>0</v>
@@ -2854,25 +2850,25 @@
         <v>60</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F65" s="2">
         <v>0</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J65" s="2">
         <v>45</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -2880,7 +2876,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>0</v>
@@ -2889,25 +2885,25 @@
         <v>90</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F66" s="2">
         <v>0</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J66" s="2">
         <v>45</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -2915,7 +2911,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>0</v>
@@ -2924,25 +2920,25 @@
         <v>20</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F67" s="2">
         <v>0</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J67" s="2">
         <v>45</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -2950,7 +2946,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>0</v>
@@ -2959,25 +2955,25 @@
         <v>40</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F68" s="2">
         <v>0</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J68" s="2">
         <v>45</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -2985,7 +2981,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>0</v>
@@ -2994,25 +2990,25 @@
         <v>60</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F69" s="2">
         <v>0</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J69" s="2">
         <v>45</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -3020,7 +3016,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>0</v>
@@ -3029,25 +3025,25 @@
         <v>90</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F70" s="2">
         <v>0</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J70" s="2">
         <v>45</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -3055,7 +3051,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>0</v>
@@ -3064,25 +3060,25 @@
         <v>20</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F71" s="2">
         <v>0</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J71" s="2">
         <v>45</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -3090,7 +3086,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>0</v>
@@ -3099,25 +3095,25 @@
         <v>40</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F72" s="2">
         <v>0</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J72" s="2">
         <v>45</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -3125,7 +3121,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>0</v>
@@ -3134,25 +3130,25 @@
         <v>60</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F73" s="2">
         <v>0</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J73" s="2">
         <v>45</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -3160,7 +3156,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>0</v>
@@ -3169,25 +3165,25 @@
         <v>90</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F74" s="2">
         <v>0</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J74" s="2">
         <v>45</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3202,6 +3198,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/protocol/CDTire.xlsx
+++ b/protocol/CDTire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Apollo-Tyres\protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A12CFC-BA2C-41E1-AF39-BED0C9918BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B3CEA9-63BE-4671-B9DA-2D60F3DAB283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="50">
   <si>
     <t>IPref</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>Inflation Pressure [bar]</t>
+  </si>
+  <si>
+    <t>Ipref</t>
   </si>
 </sst>
 </file>
@@ -266,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -298,9 +301,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -588,8 +588,8 @@
   <dimension ref="A1:L74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="A2:K2"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1568,17 +1568,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="12">
+      <c r="C29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="3">
         <v>0</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -1603,13 +1603,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>28</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
+      <c r="B30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
       <c r="E30" s="2" t="s">
         <v>34</v>
       </c>
@@ -1876,7 +1882,7 @@
       <c r="K37" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L37" s="13"/>
+      <c r="L37" s="12"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
@@ -1912,7 +1918,7 @@
       <c r="K38" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L38" s="13"/>
+      <c r="L38" s="12"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
@@ -1948,7 +1954,7 @@
       <c r="K39" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L39" s="13"/>
+      <c r="L39" s="12"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
@@ -1984,7 +1990,7 @@
       <c r="K40" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L40" s="13"/>
+      <c r="L40" s="12"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
@@ -2020,7 +2026,7 @@
       <c r="K41" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L41" s="13"/>
+      <c r="L41" s="12"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
@@ -2056,7 +2062,7 @@
       <c r="K42" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L42" s="13"/>
+      <c r="L42" s="12"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
@@ -2092,7 +2098,7 @@
       <c r="K43" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L43" s="13"/>
+      <c r="L43" s="12"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
@@ -2128,7 +2134,7 @@
       <c r="K44" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L44" s="13"/>
+      <c r="L44" s="12"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
@@ -2164,7 +2170,7 @@
       <c r="K45" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L45" s="13"/>
+      <c r="L45" s="12"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
@@ -2236,7 +2242,7 @@
       <c r="K47" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L47" s="13"/>
+      <c r="L47" s="12"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
@@ -2272,7 +2278,7 @@
       <c r="K48" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L48" s="13"/>
+      <c r="L48" s="12"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
@@ -2308,7 +2314,7 @@
       <c r="K49" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L49" s="13"/>
+      <c r="L49" s="12"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
@@ -3187,11 +3193,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="4">
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
     <mergeCell ref="L47:L49"/>
     <mergeCell ref="L37:L39"/>
     <mergeCell ref="L40:L45"/>
